--- a/output/vote_result.xlsx
+++ b/output/vote_result.xlsx
@@ -4888,52 +4888,52 @@
     <t>Ani Handriyani</t>
   </si>
   <si>
-    <t>Partai Kebangkitan Bangsa</t>
-  </si>
-  <si>
-    <t>Partai Gerakan Indonesia Raya</t>
-  </si>
-  <si>
-    <t>Partai Demokrasi Indonesia Perjuangan</t>
-  </si>
-  <si>
-    <t>Partai Golongan Karya</t>
-  </si>
-  <si>
-    <t>Partai Nasdem</t>
-  </si>
-  <si>
-    <t>Partai Gerakan Perubahan Indonesia</t>
-  </si>
-  <si>
-    <t>Partai Berkarya</t>
-  </si>
-  <si>
-    <t>Partai Keadilan Sejahtera</t>
-  </si>
-  <si>
-    <t>Partai Persatuan Indonesia</t>
-  </si>
-  <si>
-    <t>Partai Persatuan Pembangunan</t>
-  </si>
-  <si>
-    <t>Partai Solidaritas Indonesia</t>
-  </si>
-  <si>
-    <t>Partai Amanat Nasional</t>
-  </si>
-  <si>
-    <t>Partai Hati Nurani Rakyat</t>
-  </si>
-  <si>
-    <t>Partai Demokrat</t>
-  </si>
-  <si>
-    <t>Partai Bulan Bintang</t>
-  </si>
-  <si>
-    <t>Partai Keadilan dan Persatuan Indonesia</t>
+    <t>PKB</t>
+  </si>
+  <si>
+    <t>Gerindra</t>
+  </si>
+  <si>
+    <t>PDIP</t>
+  </si>
+  <si>
+    <t>Golkar</t>
+  </si>
+  <si>
+    <t>Nasdem</t>
+  </si>
+  <si>
+    <t>Garuda</t>
+  </si>
+  <si>
+    <t>Berkarya</t>
+  </si>
+  <si>
+    <t>PKS</t>
+  </si>
+  <si>
+    <t>Perindo</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Hanura</t>
+  </si>
+  <si>
+    <t>Demokrat</t>
+  </si>
+  <si>
+    <t>PBB</t>
+  </si>
+  <si>
+    <t>PKP</t>
   </si>
 </sst>
 </file>
